--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4088575.846740998</v>
+        <v>4086030.660667715</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>169.888358811</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.17142175228565</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>112.8147058133354</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>110.0843945509511</v>
       </c>
       <c r="F8" t="n">
-        <v>400.7885929988596</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>79.2860473850909</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>211.7857997499445</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329571</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.141365880777</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2525.544688178828</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2306.910021150891</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2306.910021150891</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2306.910021150891</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1954.141365880777</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1954.141365880777</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.141365880777</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.4305783960447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>675.4305783960447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>675.4305783960447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>675.4305783960447</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>675.4305783960447</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>675.4305783960447</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>675.4305783960447</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>675.4305783960447</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.4305783960447</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2528.166153252417</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2309.53148622448</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.53148622448</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1978.468598880909</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.468598880909</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>718.2396502532528</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>718.2396502532528</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>718.2396502532528</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.881273373638</v>
+        <v>981.3140028591404</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.881273373638</v>
+        <v>981.3140028591404</v>
       </c>
       <c r="D8" t="n">
-        <v>857.6155747668879</v>
+        <v>623.0483042523899</v>
       </c>
       <c r="E8" t="n">
-        <v>471.8273221686437</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
         <v>745.243961936865</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1367.913842923262</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.48111343776</v>
+        <v>1367.913842923262</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>74.45691162920645</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>403.8853159350163</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>908.2468558011349</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1828.690733635983</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1988.203046304744</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.0298983709613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>632.5123282796453</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>536.4709423447312</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>315.678363201201</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449245</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>377.6556127449245</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5598,22 +5598,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>283.6053239261805</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>26.95434640298089</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>311.7999084534176</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-1.187794616238935e-12</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-8.467341030740874e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.71423459433115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="M2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682759</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682773</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682747</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.53656668272</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682724</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61707.60287670392</v>
+        <v>-61707.60287670401</v>
       </c>
       <c r="C6" t="n">
         <v>528260.2763378405</v>
       </c>
       <c r="D6" t="n">
-        <v>372456.4702440457</v>
+        <v>372456.470244046</v>
       </c>
       <c r="E6" t="n">
-        <v>-70706.15808139036</v>
+        <v>-70740.8960068256</v>
       </c>
       <c r="F6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.795373981</v>
       </c>
       <c r="G6" t="n">
-        <v>700346.5332994162</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="H6" t="n">
-        <v>700346.5332994167</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="I6" t="n">
-        <v>700346.5332994162</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="J6" t="n">
-        <v>523923.3141068234</v>
+        <v>523888.5761813878</v>
       </c>
       <c r="K6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="L6" t="n">
-        <v>700346.5332994164</v>
+        <v>700311.7953739805</v>
       </c>
       <c r="M6" t="n">
-        <v>576138.0225913577</v>
+        <v>576103.2846659222</v>
       </c>
       <c r="N6" t="n">
-        <v>700346.5332994162</v>
+        <v>700311.795373981</v>
       </c>
       <c r="O6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="P6" t="n">
-        <v>700346.5332994162</v>
+        <v>700311.7953739809</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,16 +26972,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.527353997971517</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>94.4937702278722</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>61.60100699563615</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>215.2446648444347</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>271.8459755213107</v>
       </c>
       <c r="F8" t="n">
-        <v>6.087452742851838</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>87.96077371353694</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>11.58710497081421</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32789,16 +32789,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>453.7122424932254</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>297.1808238847177</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>424.3413399274464</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>20.72114122105252</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>421.5874110062447</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>173.4910455250327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>322.3705304098921</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
